--- a/salidas/reco/recomendaciones.xlsx
+++ b/salidas/reco/recomendaciones.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/salidas/reco/recomendaciones.xlsx
+++ b/salidas/reco/recomendaciones.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/salidas/reco/recomendaciones.xlsx
+++ b/salidas/reco/recomendaciones.xlsx
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ladder of Years</t>
+          <t>Open House</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0449910571</t>
+          <t>0375506039</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -510,12 +510,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Open House</t>
+          <t>Ladder of Years</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0375506039</t>
+          <t>0449910571</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -528,12 +528,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Middlesex: A Novel</t>
+          <t>Choke</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0374199698</t>
+          <t>0385720920</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -546,12 +546,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Choke</t>
+          <t>Middlesex: A Novel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0385720920</t>
+          <t>0374199698</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AGE OF INNOCENCE (MOVIE TIE-IN)</t>
+          <t>On the Road</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>002026478X</t>
+          <t>0140042598</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -636,12 +636,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>On the Road</t>
+          <t>AGE OF INNOCENCE (MOVIE TIE-IN)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0140042598</t>
+          <t>002026478X</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -744,12 +744,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Sands of Time</t>
+          <t>Dreamcatcher</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0446356832</t>
+          <t>0743467523</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -762,12 +762,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dreamcatcher</t>
+          <t>The Sands of Time</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0743467523</t>
+          <t>0446356832</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shadowfires</t>
+          <t>The Bad Beginning (A Series of Unfortunate Events, Book 1)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0425136981</t>
+          <t>0064407667</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -978,12 +978,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Bad Beginning (A Series of Unfortunate Events, Book 1)</t>
+          <t>Shadowfires</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0064407667</t>
+          <t>0425136981</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Confessions of a Sociopathic Social Climber : The Katya Livingston Chronicles (Katya Livingston Chronicles (Hardcover))</t>
+          <t>Atonement : A Novel</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0312288115</t>
+          <t>038572179X</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Atonement : A Novel</t>
+          <t>Confessions of a Sociopathic Social Climber : The Katya Livingston Chronicles (Katya Livingston Chronicles (Hardcover))</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>038572179X</t>
+          <t>0312288115</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Harry Potter and the Chamber of Secrets (Book 2)</t>
+          <t>Shell Seekers</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0439064864</t>
+          <t>0440202043</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Shell Seekers</t>
+          <t>Harry Potter and the Chamber of Secrets (Book 2)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0440202043</t>
+          <t>0439064864</t>
         </is>
       </c>
       <c r="D38" t="n">
